--- a/Site Views/Site Views.xlsx
+++ b/Site Views/Site Views.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>Nome</t>
   </si>
@@ -215,6 +215,42 @@
 Nas páginas de pesquisa de aluno/turma será apresentado um formulário de pesquisa que, quando submetido, apresenta uma lista de alunos/turmas que cumprem os requisitos do formulário, podendo o utilizador selecionar um elemento dessa lista para consultar estatisticas relacionadas com esses elmentos.
 Na página de estatisticas de aluno serão apresentadas estatisticas calculadas segundo os dados do alunos selecionado.
 Na página de estatisticas de turma serão apresentadas estatisticas calculadas segundo os dados dos alunos pertencentes à turma selecionada.</t>
+  </si>
+  <si>
+    <t>Exercicio individual, Ficha colectiva, Nota, Aluno, Turma</t>
+  </si>
+  <si>
+    <t>Notificação</t>
+  </si>
+  <si>
+    <t>Professor, Direção, Aluno, Encarregado</t>
+  </si>
+  <si>
+    <t>Estatisticas, Aluno, Turma</t>
+  </si>
+  <si>
+    <t>Exercicio Individual, Ficha colectiva, Aluno</t>
+  </si>
+  <si>
+    <t>Exercicio Individual, Ficha colectiva, Nota, Aluno</t>
+  </si>
+  <si>
+    <t>Exercicio individual, Ficha colectiva, Nota, Aluno, Encarregado</t>
+  </si>
+  <si>
+    <t>Notificações</t>
+  </si>
+  <si>
+    <t>Estatistica, Aluno</t>
+  </si>
+  <si>
+    <t>Encarregado</t>
+  </si>
+  <si>
+    <t>Professor, Aluno, Direção, Encarregado</t>
+  </si>
+  <si>
+    <t>Estatistica, Aluno, Turma</t>
   </si>
 </sst>
 </file>
@@ -521,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -535,128 +571,125 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,63 +1006,63 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1038,43 +1071,49 @@
       <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1091,75 +1130,75 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1168,79 +1207,89 @@
       <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="30" t="s">
+      <c r="D24" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="30" t="s">
+      <c r="D26" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="41" t="s">
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45" t="s">
+      <c r="D28" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1251,75 +1300,75 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="23"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="23"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="23"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="25"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1328,141 +1377,149 @@
       <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="28" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="30" t="s">
+      <c r="D41" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="30" t="s">
+      <c r="D43" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34" t="s">
+      <c r="D44" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="23"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="23"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="23"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1471,72 +1528,94 @@
       <c r="D55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="28" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="30" t="s">
+      <c r="D57" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="270" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="28" t="s">
+      <c r="D58" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="30" t="s">
+      <c r="D59" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34" t="s">
+      <c r="D60" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E6"/>
@@ -1553,20 +1632,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:E37"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Site Views/Site Views.xlsx
+++ b/Site Views/Site Views.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>Nome</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Professor, Direção, Aluno, Encarregado</t>
-  </si>
-  <si>
-    <t>Estatisticas, Aluno, Turma</t>
   </si>
   <si>
     <t>Exercicio Individual, Ficha colectiva, Aluno</t>
@@ -622,6 +619,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,6 +646,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -640,56 +682,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,12 +1003,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -1027,11 +1024,11 @@
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
@@ -1047,19 +1044,19 @@
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -1083,7 +1080,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>11</v>
@@ -1096,8 +1093,8 @@
       <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>62</v>
+      <c r="D10" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>11</v>
@@ -1110,8 +1107,8 @@
       <c r="C11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="43" t="s">
-        <v>62</v>
+      <c r="D11" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>14</v>
@@ -1130,12 +1127,12 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -1151,17 +1148,17 @@
       <c r="B16" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
@@ -1177,25 +1174,25 @@
       <c r="B19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -1230,7 +1227,7 @@
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="13" t="s">
@@ -1258,7 +1255,7 @@
       <c r="C26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E26" s="13" t="s">
@@ -1273,7 +1270,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>11</v>
@@ -1286,7 +1283,7 @@
       <c r="C28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="21" t="s">
@@ -1300,12 +1297,12 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
@@ -1321,17 +1318,17 @@
       <c r="B33" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
@@ -1347,25 +1344,25 @@
       <c r="B36" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
@@ -1400,8 +1397,8 @@
       <c r="C41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>63</v>
+      <c r="D41" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>14</v>
@@ -1415,7 +1412,7 @@
         <v>30</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>11</v>
@@ -1428,8 +1425,8 @@
       <c r="C43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="42" t="s">
-        <v>65</v>
+      <c r="D43" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>14</v>
@@ -1442,8 +1439,8 @@
       <c r="C44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>66</v>
+      <c r="D44" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>29</v>
@@ -1451,12 +1448,12 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
@@ -1472,17 +1469,17 @@
       <c r="B49" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
@@ -1498,25 +1495,25 @@
       <c r="B52" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
@@ -1551,8 +1548,8 @@
       <c r="C57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="42" t="s">
-        <v>64</v>
+      <c r="D57" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>11</v>
@@ -1566,7 +1563,7 @@
         <v>53</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>14</v>
@@ -1579,8 +1576,8 @@
       <c r="C59" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="42" t="s">
-        <v>68</v>
+      <c r="D59" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>14</v>
@@ -1593,7 +1590,7 @@
       <c r="C60" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="43" t="s">
+      <c r="D60" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -1602,20 +1599,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E6"/>
@@ -1632,6 +1615,20 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:E37"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Site Views/Site Views.xlsx
+++ b/Site Views/Site Views.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="-1095" yWindow="0" windowWidth="12870" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -628,6 +628,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,15 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -655,6 +664,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -671,21 +686,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,7 +992,7 @@
   <dimension ref="B1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,60 +1003,60 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
@@ -1127,72 +1127,72 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -1297,72 +1297,72 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
@@ -1448,72 +1448,72 @@
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="33"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
@@ -1599,6 +1599,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E6"/>
@@ -1615,20 +1629,6 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:E37"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
